--- a/excel-files/examples/raw-description-template.xlsx
+++ b/excel-files/examples/raw-description-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Desktop\codigo\vtex-wizard\excel-files\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA3C0B-64DD-46E8-A791-E08110BDF737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F96B03-992A-4483-9FB8-BCE18CDEA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5146D8D-5D62-41B7-BB1D-92B86E77855F}"/>
   </bookViews>
@@ -36,22 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>&lt;p&gt;&lt;strong&gt;&lt;span lang="EN-US" style="font-family:'Arial',sans-serif;color:black;"&gt;Minoxidil L&amp;iacute;quido Kirkland&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p style="margin-bottom:6.0pt;text-align:justify;line-height:normal;background:white;"&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;Promueva el crecimiento del Cabello y Barba&amp;nbsp;con la f&amp;oacute;rmula original del tratamiento Kirkland Signature Extra Strength Minoxidil 5% para hombres.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-bottom:6.0pt;text-align:justify;line-height:normal;background:white;"&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;De uso t&amp;oacute;pico, Minoxidil es el &amp;uacute;nico tratamiento comprobado cient&amp;iacute;ficamente para detener la ca&amp;iacute;da del cabello y reactivar el crecimiento del mismo.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-bottom:6.0pt;text-align:justify;line-height:normal;background:white;"&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;El tratamiento de p&amp;eacute;rdida de cabello de Kirkland toma alrededor de 2 a 6 meses para que los resultados efectivos comiencen a mostrarse y Barba de 1 a 8 meses.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-bottom:6.0pt;text-align:justify;line-height:normal;background:white;"&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-bottom:0cm;margin-bottom:.0001pt;text-align:justify;line-height:normal;"&gt;&lt;strong&gt;&lt;span lang="EN-US" style="font-size:10.0pt;font-family:'Arial',sans-serif;color:#666666;"&gt;CARACTERISTICAS:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p style="margin-bottom:0cm;margin-bottom:.0001pt;text-align:justify;line-height:normal;"&gt;&lt;strong&gt;&lt;span lang="EN-US" style="font-size:10.0pt;font-family:'Arial',sans-serif;color:#666666;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p data-list="0" data-level="1" style="margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:24.0pt;margin-bottom:.0001pt;text-align:justify;text-indent:-18.0pt;line-height:normal;border:none;"&gt;&lt;span lang="EN-US" style="font-family:'Noto Sans Symbols';color:#666666;"&gt;&lt;span&gt;●&lt;span style="font:7.0pt 'Times New Roman';"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US" style="font-family:'Arial',sans-serif;color:#666666;"&gt;Marca: Kirkland &lt;/span&gt;&lt;/p&gt;&lt;p data-list="0" data-level="1" style="margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:24.0pt;margin-bottom:.0001pt;text-align:justify;text-indent:-18.0pt;line-height:normal;border:none;"&gt;&lt;span lang="EN-US" style="font-family:'Noto Sans Symbols';color:#666666;"&gt;&lt;span&gt;●&lt;span style="font:7.0pt 'Times New Roman';"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US" style="font-family:'Arial',sans-serif;color:#666666;"&gt;Importado de USA.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p data-list="0" data-level="1" style="margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:24.0pt;margin-bottom:.0001pt;text-align:justify;text-indent:-18.0pt;line-height:normal;border:none;"&gt;&lt;span lang="ES-MX" style="font-family:'Noto Sans Symbols';color:#666666;"&gt;&lt;span&gt;●&lt;span style="font:7.0pt 'Times New Roman';"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;1 frasco contiene 60 ml de producto para 30 d&amp;iacute;as de uso.&lt;/span&gt;&lt;/p&gt;&lt;p data-list="0" data-level="1" style="margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:24.0pt;margin-bottom:.0001pt;text-align:justify;text-indent:-18.0pt;line-height:normal;border:none;"&gt;&lt;span lang="EN-US" style="font-family:'Noto Sans Symbols';color:#666666;"&gt;&lt;span&gt;●&lt;span style="font:7.0pt 'Times New Roman';"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span lang="EN-US" style="font-family:'Arial',sans-serif;color:#666666;"&gt;Solo para hombres.&lt;/span&gt;&lt;/p&gt;&lt;p data-list="0" data-level="1" style="margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:24.0pt;margin-bottom:.0001pt;text-align:justify;text-indent:-18.0pt;line-height:normal;border:none;"&gt;&lt;span lang="ES-MX" style="font-family:'Noto Sans Symbols';color:#666666;"&gt;&lt;span&gt;●&lt;span style="font:7.0pt 'Times New Roman';"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;Venta exclusiva para mayores de edad. Su uso es responsabilidad de quien lo use.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top:0cm;margin-right:0cm;margin-bottom:0cm;margin-left:24.0pt;margin-bottom:.0001pt;text-align:justify;line-height:normal;border:none;"&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-bottom:0cm;margin-bottom:.0001pt;text-align:justify;line-height:normal;"&gt;&lt;strong&gt;&lt;span lang="EN-US" style="font-size:10.0pt;font-family:'Arial',sans-serif;color:#666666;background:white;"&gt;MODO DE USO:&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul style="margin-bottom:6.0pt;text-align:justify;line-height:normal;background:white;"&gt;&lt;li&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;Se aplica en la zona deseada, masajee y d&amp;eacute;jalo actuar hasta que se absorba.&amp;nbsp;&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;La manera ideal de utilizarlo es 2 veces al d&amp;iacute;a, Ma&amp;ntilde;ana y Noche, 1 mililitro por aplicaci&amp;oacute;n, debe lavar muy bien el &amp;aacute;rea de aplicaci&amp;oacute;n antes y despu&amp;eacute;s de aplicarlo a las 3 o 4 horas.&amp;nbsp;&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;Aplicar crema humectante en la zona de ser requerido.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt;Resultados se ven con el uso constante y diario.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p style="margin-bottom:0cm;margin-bottom:.0001pt;text-align:justify;line-height:normal;"&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:black;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;strong&gt;&lt;span lang="ES-MX" style="font-size:10.0pt;line-height:107%;font-family:'Arial',sans-serif;color:#666666;"&gt;INGREDIENTES&lt;/span&gt;&lt;/strong&gt;&lt;span lang="ES-MX" style="font-size:10.0pt;line-height:107%;font-family:'Arial',sans-serif;color:#666666;"&gt;:&lt;/span&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#666666;"&gt; Minoxidil al 5%, alcohol, Propileno de glicol, Agua purificada.&lt;/span&gt;&lt;/p&gt;&lt;ul type="disc"&gt;&lt;li data-list="0" data-level="1" style="color:black;line-height:normal;tab-stops:list 36.0pt;"&gt;&lt;span style="color:windowtext;"&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;strong&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#222222;"&gt;Env&amp;iacute;o&amp;nbsp;gratis por compras      superiores a 79 soles solo aplica para Lima Metropolitana.&lt;/span&gt;&lt;/strong&gt;&lt;/li&gt;&lt;li data-list="0" data-level="1" style="color:black;line-height:normal;tab-stops:list 36.0pt;"&gt;&lt;strong&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#222222;"&gt;Subsidio de      S/5.90 en el delivery a cualquier parte del Per&amp;uacute; por compras iguales o      superiores a 79 soles.&lt;/span&gt;&lt;/strong&gt;&lt;/li&gt;&lt;li data-list="0" data-level="1" style="color:black;line-height:normal;tab-stops:list 36.0pt;"&gt;&lt;strong&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;color:#222222;"&gt;Tenemos tiendas      y/o almacenes en las principales ciudades (Abancay, Arequipa, Ayacucho,      Cajamarca, Chiclayo, Cuzco, Hu&amp;aacute;nuco, Ica, Lima, Moquegua, Tacna, Tarapoto,      Tumbes)&lt;/span&gt;&lt;/strong&gt;&lt;/li&gt;&lt;li data-list="0" data-level="1" style="color:#222222;line-height:normal;tab-stops:list 36.0pt;"&gt;&lt;strong&gt;&lt;span lang="ES-MX" style="font-family:'Arial',sans-serif;"&gt;Atendemos Pedidos por Mayor y      Menor.&lt;/span&gt;&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p align="center" style="margin-bottom:12.0pt;text-align:center;line-height:normal;"&gt;&lt;strong&gt;&lt;span lang="ES-MX" style="font-size:12.0pt;font-family:'Arial',sans-serif;color:#333333;"&gt;&amp;iexcl;Muchas gracias por visitar nuestra publicaci&amp;oacute;n, esperamos contar con su preferencia!!&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>columna_html</t>
   </si>
-  <si>
-    <t>Example</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,18 +57,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,9 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,25 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D905A2E3-ECD2-45DA-85CB-0EE3959B2D62}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
